--- a/tests/testData/standard/px-files/blogs/blogmap_max1000.xlsx
+++ b/tests/testData/standard/px-files/blogs/blogmap_max1000.xlsx
@@ -9159,16 +9159,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF999999"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF999999"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF999999"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF999999"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9498,8 +9498,8 @@
     <col min="2" max="2" width="40" customWidth="true" style="0"/>
     <col min="3" max="3" width="14" customWidth="true" style="0"/>
     <col min="4" max="4" width="14" customWidth="true" style="0"/>
+    <col min="5" max="5" width="30" customWidth="true" style="0"/>
     <col min="6" max="6" width="30" customWidth="true" style="0"/>
-    <col min="5" max="5" width="30" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customHeight="1" ht="10">
